--- a/MULTIPLICACION MATRICES/RESULTADOS/MatrixMul_Local_Tiles/resultados.xlsx
+++ b/MULTIPLICACION MATRICES/RESULTADOS/MatrixMul_Local_Tiles/resultados.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>(1/1)</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Local Size</t>
   </si>
   <si>
-    <t>['(1/1)', '(2/2)']</t>
+    <t>['(2/2)']</t>
   </si>
   <si>
     <t>['(2/2)', '(4/4)']</t>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>['(16/16)']</t>
+  </si>
+  <si>
+    <t>['(8/8)', '(16/16)']</t>
   </si>
 </sst>
 </file>
@@ -470,40 +473,40 @@
         <v>5.12E-06</v>
       </c>
       <c r="C2" s="1">
-        <v>5.216000000000001E-06</v>
+        <v>5.184000000000001E-06</v>
       </c>
       <c r="D2" s="1">
-        <v>6.752000000000001E-06</v>
+        <v>6.144000000000001E-06</v>
       </c>
       <c r="E2" s="1">
-        <v>8.448000000000001E-06</v>
+        <v>8.192000000000001E-06</v>
       </c>
       <c r="F2" s="1">
-        <v>1.1936E-05</v>
+        <v>1.1264E-05</v>
       </c>
       <c r="G2" s="1">
-        <v>4.4768E-05</v>
+        <v>4.416E-05</v>
       </c>
       <c r="H2" s="1">
-        <v>0.00026112</v>
+        <v>0.000268256</v>
       </c>
       <c r="I2" s="1">
-        <v>0.002685472</v>
+        <v>0.002683456</v>
       </c>
       <c r="J2" s="1">
-        <v>0.021711872</v>
+        <v>0.021690336</v>
       </c>
       <c r="K2" s="1">
-        <v>0.172312352</v>
+        <v>0.172138016</v>
       </c>
       <c r="L2" s="1">
-        <v>2.227901056</v>
+        <v>2.225742848</v>
       </c>
       <c r="M2" s="1">
-        <v>17.908457376</v>
+        <v>17.88657392</v>
       </c>
       <c r="N2" s="1">
-        <v>144.436638688</v>
+        <v>144.66837216</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -511,43 +514,43 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>5.12E-06</v>
+        <v>5.088E-06</v>
       </c>
       <c r="C3" s="1">
         <v>5.12E-06</v>
       </c>
       <c r="D3" s="1">
-        <v>5.760000000000001E-06</v>
+        <v>6.144000000000001E-06</v>
       </c>
       <c r="E3" s="1">
-        <v>6.208000000000001E-06</v>
+        <v>6.144000000000001E-06</v>
       </c>
       <c r="F3" s="1">
-        <v>8.384E-06</v>
+        <v>1.0112E-05</v>
       </c>
       <c r="G3" s="1">
-        <v>1.2288E-05</v>
+        <v>1.4336E-05</v>
       </c>
       <c r="H3" s="1">
-        <v>5.9392E-05</v>
+        <v>6.8352E-05</v>
       </c>
       <c r="I3" s="1">
-        <v>0.000410656</v>
+        <v>0.0004688</v>
       </c>
       <c r="J3" s="1">
-        <v>0.003191808</v>
+        <v>0.003629824</v>
       </c>
       <c r="K3" s="1">
-        <v>0.02567392</v>
+        <v>0.029203456</v>
       </c>
       <c r="L3" s="1">
-        <v>0.300262816</v>
+        <v>0.325182976</v>
       </c>
       <c r="M3" s="1">
-        <v>2.46569968</v>
+        <v>2.507905024</v>
       </c>
       <c r="N3" s="1">
-        <v>20.64559184</v>
+        <v>20.680879104</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -558,37 +561,37 @@
         <v>5.12E-06</v>
       </c>
       <c r="D4" s="1">
-        <v>5.152E-06</v>
+        <v>6.112E-06</v>
       </c>
       <c r="E4" s="1">
         <v>6.144000000000001E-06</v>
       </c>
       <c r="F4" s="1">
-        <v>7.04E-06</v>
+        <v>7.392000000000001E-06</v>
       </c>
       <c r="G4" s="1">
-        <v>8.192000000000001E-06</v>
+        <v>1.024E-05</v>
       </c>
       <c r="H4" s="1">
-        <v>1.4336E-05</v>
+        <v>1.6384E-05</v>
       </c>
       <c r="I4" s="1">
-        <v>7.987200000000001E-05</v>
+        <v>9.011200000000001E-05</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000546816</v>
+        <v>0.000605312</v>
       </c>
       <c r="K4" s="1">
-        <v>0.00407552</v>
+        <v>0.004573952</v>
       </c>
       <c r="L4" s="1">
-        <v>0.042668896</v>
+        <v>0.046611264</v>
       </c>
       <c r="M4" s="1">
-        <v>0.369914048</v>
+        <v>0.39754448</v>
       </c>
       <c r="N4" s="1">
-        <v>3.346103872</v>
+        <v>3.373113536</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -602,31 +605,31 @@
         <v>5.12E-06</v>
       </c>
       <c r="F5" s="1">
-        <v>6.144000000000001E-06</v>
+        <v>7.072E-06</v>
       </c>
       <c r="G5" s="1">
-        <v>6.144000000000001E-06</v>
+        <v>7.168000000000001E-06</v>
       </c>
       <c r="H5" s="1">
         <v>1.024E-05</v>
       </c>
       <c r="I5" s="1">
-        <v>2.7424E-05</v>
+        <v>3.1296E-05</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000159744</v>
+        <v>0.000178624</v>
       </c>
       <c r="K5" s="1">
-        <v>0.001167584</v>
+        <v>0.001317856</v>
       </c>
       <c r="L5" s="1">
-        <v>0.009274144</v>
+        <v>0.01043632</v>
       </c>
       <c r="M5" s="1">
-        <v>0.08777014400000001</v>
+        <v>0.090647744</v>
       </c>
       <c r="N5" s="1">
-        <v>0.7845077760000001</v>
+        <v>0.796134656</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -634,34 +637,34 @@
         <v>4</v>
       </c>
       <c r="E6" s="1">
-        <v>5.184000000000001E-06</v>
+        <v>5.344E-06</v>
       </c>
       <c r="F6" s="1">
-        <v>6.208000000000001E-06</v>
+        <v>6.176000000000001E-06</v>
       </c>
       <c r="G6" s="1">
-        <v>6.016000000000001E-06</v>
+        <v>7.168000000000001E-06</v>
       </c>
       <c r="H6" s="1">
-        <v>8.352000000000001E-06</v>
+        <v>9.248E-06</v>
       </c>
       <c r="I6" s="1">
-        <v>2.7456E-05</v>
+        <v>3.145600000000001E-05</v>
       </c>
       <c r="J6" s="1">
-        <v>0.00013824</v>
+        <v>0.00015584</v>
       </c>
       <c r="K6" s="1">
-        <v>0.0009799680000000001</v>
+        <v>0.00111104</v>
       </c>
       <c r="L6" s="1">
-        <v>0.007720960000000001</v>
+        <v>0.008732672</v>
       </c>
       <c r="M6" s="1">
-        <v>0.062809088</v>
+        <v>0.06955929600000001</v>
       </c>
       <c r="N6" s="1">
-        <v>0.5291233280000001</v>
+        <v>0.5414993920000001</v>
       </c>
     </row>
   </sheetData>
@@ -699,7 +702,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>5.12E-06</v>
+        <v>5.088E-06</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
@@ -755,10 +758,10 @@
         <v>32</v>
       </c>
       <c r="C6" s="1">
-        <v>6.144000000000001E-06</v>
+        <v>6.176000000000001E-06</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -769,10 +772,10 @@
         <v>64</v>
       </c>
       <c r="C7" s="1">
-        <v>6.016000000000001E-06</v>
+        <v>7.168000000000001E-06</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -783,7 +786,7 @@
         <v>128</v>
       </c>
       <c r="C8" s="1">
-        <v>8.352000000000001E-06</v>
+        <v>9.248E-06</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
@@ -797,7 +800,7 @@
         <v>256</v>
       </c>
       <c r="C9" s="1">
-        <v>2.7424E-05</v>
+        <v>3.1296E-05</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>10</v>
@@ -811,7 +814,7 @@
         <v>512</v>
       </c>
       <c r="C10" s="1">
-        <v>0.00013824</v>
+        <v>0.00015584</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>11</v>
@@ -825,7 +828,7 @@
         <v>1024</v>
       </c>
       <c r="C11" s="1">
-        <v>0.0009799680000000001</v>
+        <v>0.00111104</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>11</v>
@@ -839,7 +842,7 @@
         <v>2048</v>
       </c>
       <c r="C12" s="1">
-        <v>0.007720960000000001</v>
+        <v>0.008732672</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>11</v>
@@ -853,7 +856,7 @@
         <v>4096</v>
       </c>
       <c r="C13" s="1">
-        <v>0.062809088</v>
+        <v>0.06955929600000001</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>11</v>
@@ -867,7 +870,7 @@
         <v>8192</v>
       </c>
       <c r="C14" s="1">
-        <v>0.5291233280000001</v>
+        <v>0.5414993920000001</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>11</v>

--- a/MULTIPLICACION MATRICES/RESULTADOS/MatrixMul_Local_Tiles/resultados.xlsx
+++ b/MULTIPLICACION MATRICES/RESULTADOS/MatrixMul_Local_Tiles/resultados.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t>(1/1)</t>
   </si>
@@ -44,10 +44,7 @@
     <t>['(2/2)']</t>
   </si>
   <si>
-    <t>['(2/2)', '(4/4)']</t>
-  </si>
-  <si>
-    <t>['(8/8)']</t>
+    <t>['(1/1)', '(4/4)']</t>
   </si>
   <si>
     <t>['(16/16)']</t>
@@ -473,7 +470,7 @@
         <v>5.12E-06</v>
       </c>
       <c r="C2" s="1">
-        <v>5.184000000000001E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="D2" s="1">
         <v>6.144000000000001E-06</v>
@@ -482,31 +479,31 @@
         <v>8.192000000000001E-06</v>
       </c>
       <c r="F2" s="1">
-        <v>1.1264E-05</v>
+        <v>1.216E-05</v>
       </c>
       <c r="G2" s="1">
-        <v>4.416E-05</v>
+        <v>4.5056E-05</v>
       </c>
       <c r="H2" s="1">
-        <v>0.000268256</v>
+        <v>0.0002608</v>
       </c>
       <c r="I2" s="1">
-        <v>0.002683456</v>
+        <v>0.002675712</v>
       </c>
       <c r="J2" s="1">
-        <v>0.021690336</v>
+        <v>0.021624608</v>
       </c>
       <c r="K2" s="1">
-        <v>0.172138016</v>
+        <v>0.189268992</v>
       </c>
       <c r="L2" s="1">
-        <v>2.225742848</v>
+        <v>2.223509984</v>
       </c>
       <c r="M2" s="1">
-        <v>17.88657392</v>
+        <v>17.866137728</v>
       </c>
       <c r="N2" s="1">
-        <v>144.66837216</v>
+        <v>144.752152576</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -514,43 +511,43 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
+        <v>5.056E-06</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5.856E-06</v>
+      </c>
+      <c r="D3" s="1">
         <v>5.088E-06</v>
       </c>
-      <c r="C3" s="1">
-        <v>5.12E-06</v>
-      </c>
-      <c r="D3" s="1">
-        <v>6.144000000000001E-06</v>
-      </c>
       <c r="E3" s="1">
-        <v>6.144000000000001E-06</v>
+        <v>6.208000000000001E-06</v>
       </c>
       <c r="F3" s="1">
-        <v>1.0112E-05</v>
+        <v>8.384E-06</v>
       </c>
       <c r="G3" s="1">
-        <v>1.4336E-05</v>
+        <v>1.2288E-05</v>
       </c>
       <c r="H3" s="1">
-        <v>6.8352E-05</v>
+        <v>6.0192E-05</v>
       </c>
       <c r="I3" s="1">
-        <v>0.0004688</v>
+        <v>0.000412608</v>
       </c>
       <c r="J3" s="1">
-        <v>0.003629824</v>
+        <v>0.00319264</v>
       </c>
       <c r="K3" s="1">
-        <v>0.029203456</v>
+        <v>0.025740448</v>
       </c>
       <c r="L3" s="1">
-        <v>0.325182976</v>
+        <v>0.300688192</v>
       </c>
       <c r="M3" s="1">
-        <v>2.507905024</v>
+        <v>2.468139008</v>
       </c>
       <c r="N3" s="1">
-        <v>20.680879104</v>
+        <v>20.724409408</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -561,37 +558,37 @@
         <v>5.12E-06</v>
       </c>
       <c r="D4" s="1">
-        <v>6.112E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="E4" s="1">
         <v>6.144000000000001E-06</v>
       </c>
       <c r="F4" s="1">
-        <v>7.392000000000001E-06</v>
+        <v>7.808E-06</v>
       </c>
       <c r="G4" s="1">
-        <v>1.024E-05</v>
+        <v>8.960000000000001E-06</v>
       </c>
       <c r="H4" s="1">
-        <v>1.6384E-05</v>
+        <v>1.4336E-05</v>
       </c>
       <c r="I4" s="1">
-        <v>9.011200000000001E-05</v>
+        <v>7.8848E-05</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000605312</v>
+        <v>0.000544864</v>
       </c>
       <c r="K4" s="1">
-        <v>0.004573952</v>
+        <v>0.004055264</v>
       </c>
       <c r="L4" s="1">
-        <v>0.046611264</v>
+        <v>0.042551296</v>
       </c>
       <c r="M4" s="1">
-        <v>0.39754448</v>
+        <v>0.369046528</v>
       </c>
       <c r="N4" s="1">
-        <v>3.373113536</v>
+        <v>3.35186944</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -599,37 +596,37 @@
         <v>3</v>
       </c>
       <c r="D5" s="1">
-        <v>5.12E-06</v>
+        <v>5.152E-06</v>
       </c>
       <c r="E5" s="1">
-        <v>5.12E-06</v>
+        <v>5.44E-06</v>
       </c>
       <c r="F5" s="1">
-        <v>7.072E-06</v>
+        <v>6.88E-06</v>
       </c>
       <c r="G5" s="1">
-        <v>7.168000000000001E-06</v>
+        <v>6.144000000000001E-06</v>
       </c>
       <c r="H5" s="1">
         <v>1.024E-05</v>
       </c>
       <c r="I5" s="1">
-        <v>3.1296E-05</v>
+        <v>2.6624E-05</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000178624</v>
+        <v>0.000157792</v>
       </c>
       <c r="K5" s="1">
-        <v>0.001317856</v>
+        <v>0.0011632</v>
       </c>
       <c r="L5" s="1">
-        <v>0.01043632</v>
+        <v>0.009225888</v>
       </c>
       <c r="M5" s="1">
-        <v>0.090647744</v>
+        <v>0.086451552</v>
       </c>
       <c r="N5" s="1">
-        <v>0.796134656</v>
+        <v>0.782477568</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -637,34 +634,34 @@
         <v>4</v>
       </c>
       <c r="E6" s="1">
-        <v>5.344E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="F6" s="1">
-        <v>6.176000000000001E-06</v>
+        <v>6.24E-06</v>
       </c>
       <c r="G6" s="1">
-        <v>7.168000000000001E-06</v>
+        <v>6.144000000000001E-06</v>
       </c>
       <c r="H6" s="1">
-        <v>9.248E-06</v>
+        <v>9.152E-06</v>
       </c>
       <c r="I6" s="1">
-        <v>3.145600000000001E-05</v>
+        <v>2.6624E-05</v>
       </c>
       <c r="J6" s="1">
-        <v>0.00015584</v>
+        <v>0.00013632</v>
       </c>
       <c r="K6" s="1">
-        <v>0.00111104</v>
+        <v>0.0009748480000000001</v>
       </c>
       <c r="L6" s="1">
-        <v>0.008732672</v>
+        <v>0.007672832</v>
       </c>
       <c r="M6" s="1">
-        <v>0.06955929600000001</v>
+        <v>0.062525568</v>
       </c>
       <c r="N6" s="1">
-        <v>0.5414993920000001</v>
+        <v>0.517410848</v>
       </c>
     </row>
   </sheetData>
@@ -702,7 +699,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>5.088E-06</v>
+        <v>5.056E-06</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
@@ -730,10 +727,10 @@
         <v>8</v>
       </c>
       <c r="C4" s="1">
-        <v>5.12E-06</v>
+        <v>5.088E-06</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -758,10 +755,10 @@
         <v>32</v>
       </c>
       <c r="C6" s="1">
-        <v>6.176000000000001E-06</v>
+        <v>6.24E-06</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -772,10 +769,10 @@
         <v>64</v>
       </c>
       <c r="C7" s="1">
-        <v>7.168000000000001E-06</v>
+        <v>6.144000000000001E-06</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -786,10 +783,10 @@
         <v>128</v>
       </c>
       <c r="C8" s="1">
-        <v>9.248E-06</v>
+        <v>9.152E-06</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -800,10 +797,10 @@
         <v>256</v>
       </c>
       <c r="C9" s="1">
-        <v>3.1296E-05</v>
+        <v>2.6624E-05</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -814,10 +811,10 @@
         <v>512</v>
       </c>
       <c r="C10" s="1">
-        <v>0.00015584</v>
+        <v>0.00013632</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -828,10 +825,10 @@
         <v>1024</v>
       </c>
       <c r="C11" s="1">
-        <v>0.00111104</v>
+        <v>0.0009748480000000001</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -842,10 +839,10 @@
         <v>2048</v>
       </c>
       <c r="C12" s="1">
-        <v>0.008732672</v>
+        <v>0.007672832</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -856,10 +853,10 @@
         <v>4096</v>
       </c>
       <c r="C13" s="1">
-        <v>0.06955929600000001</v>
+        <v>0.062525568</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -870,10 +867,10 @@
         <v>8192</v>
       </c>
       <c r="C14" s="1">
-        <v>0.5414993920000001</v>
+        <v>0.517410848</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
